--- a/manager/PTime/国家-平台.xlsx
+++ b/manager/PTime/国家-平台.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="数据来源" sheetId="5" r:id="rId1"/>
     <sheet name="国家-平台" sheetId="2" r:id="rId2"/>
     <sheet name="国家-收入排行榜" sheetId="6" r:id="rId3"/>
     <sheet name="国家-就业 失业率" sheetId="7" r:id="rId4"/>
+    <sheet name="公司记录" sheetId="8" r:id="rId5"/>
+    <sheet name="博客平台" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="365">
   <si>
     <t>来源</t>
   </si>
@@ -186,7 +188,8 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Indeed
+    <r>
+      <t xml:space="preserve">Indeed
 https://www.indeed.com/
 美国最受欢迎的求职网站之一，提供来自不同来源的职位信息，并包含公司评价、工资数据等实用资源。
 LinkedIn
@@ -210,9 +213,52 @@
 USAJOBS
 https://www.usajobs.gov/
 美国政府官方的招聘网站，专门用于发布联邦政府的工作机会，适合想进入公共部门工作的求职者。
-AngelList
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AngelList</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 https://angel.co/jobs
-专注于初创公司和技术领域职位，适合对创业公司和科技行业感兴趣的求职者。
+专注于初创公司和技术领域职位，适合对创业公司和科技行业感兴趣的求职者。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Dice
 https://www.dice.com/
 主要针对科技和工程领域的专业人士，适合寻找软件开发、数据科学和信息技术类的工作机会。
@@ -222,6 +268,7 @@
 Snagajob
 https://www.snagajob.com/
 面向小时工、兼职和临时工的职位平台，适合寻找餐饮、零售等行业的兼职和基础工作。</t>
+    </r>
   </si>
   <si>
     <t>日本</t>
@@ -2384,6 +2431,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>冰岛</t>
     </r>
     <r>
@@ -2399,6 +2454,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>阿联酋</t>
     </r>
     <r>
@@ -2414,6 +2477,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>瑞士</t>
     </r>
     <r>
@@ -2429,6 +2500,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>新加坡</t>
     </r>
     <r>
@@ -2444,6 +2523,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>瑞典</t>
     </r>
     <r>
@@ -2459,6 +2546,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>日本</t>
     </r>
     <r>
@@ -2474,6 +2569,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>新加坡</t>
     </r>
     <r>
@@ -2489,6 +2592,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>瑞士</t>
     </r>
     <r>
@@ -2504,6 +2615,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>荷兰</t>
     </r>
     <r>
@@ -2519,6 +2638,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>香港</t>
     </r>
     <r>
@@ -2534,6 +2661,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>丹麦</t>
     </r>
     <r>
@@ -2549,6 +2684,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>韩国</t>
     </r>
     <r>
@@ -2564,6 +2707,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>奥地利</t>
     </r>
     <r>
@@ -2579,6 +2730,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>澳大利亚</t>
     </r>
     <r>
@@ -2594,6 +2753,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>挪威</t>
     </r>
     <r>
@@ -2609,6 +2776,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>德国</t>
     </r>
     <r>
@@ -2624,6 +2799,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>澳大利亚</t>
     </r>
     <r>
@@ -2639,6 +2822,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>美国</t>
     </r>
     <r>
@@ -2654,6 +2845,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>芬兰</t>
     </r>
     <r>
@@ -2669,6 +2868,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>爱尔兰</t>
     </r>
     <r>
@@ -2684,6 +2891,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>德国</t>
     </r>
     <r>
@@ -2699,6 +2914,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>英国</t>
     </r>
     <r>
@@ -2714,6 +2937,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>美国</t>
     </r>
     <r>
@@ -2729,6 +2960,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>挪威</t>
     </r>
     <r>
@@ -2744,6 +2983,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>加拿大</t>
     </r>
     <r>
@@ -2759,6 +3006,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>丹麦</t>
     </r>
     <r>
@@ -2774,6 +3029,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>英国</t>
     </r>
     <r>
@@ -2789,6 +3052,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>瑞典</t>
     </r>
     <r>
@@ -2804,6 +3075,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>日本</t>
     </r>
     <r>
@@ -2819,6 +3098,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>芬兰</t>
     </r>
     <r>
@@ -2834,6 +3121,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>韩国</t>
     </r>
     <r>
@@ -2849,6 +3144,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>加拿大</t>
     </r>
     <r>
@@ -2864,6 +3167,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>比利时</t>
     </r>
     <r>
@@ -2879,6 +3190,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>荷兰</t>
     </r>
     <r>
@@ -2894,6 +3213,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>爱尔兰</t>
     </r>
     <r>
@@ -2909,6 +3236,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>比利时</t>
     </r>
     <r>
@@ -2924,6 +3259,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>法国</t>
     </r>
     <r>
@@ -2939,6 +3282,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>以色列</t>
     </r>
     <r>
@@ -2954,6 +3305,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>新西兰</t>
     </r>
     <r>
@@ -2969,6 +3328,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>奥地利</t>
     </r>
     <r>
@@ -2984,6 +3351,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>葡萄牙</t>
     </r>
     <r>
@@ -2999,6 +3374,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>卢森堡</t>
     </r>
     <r>
@@ -3014,6 +3397,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>西班牙</t>
     </r>
     <r>
@@ -3029,6 +3420,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>新西兰</t>
     </r>
     <r>
@@ -3044,6 +3443,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>意大利</t>
     </r>
     <r>
@@ -3059,6 +3466,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>葡萄牙</t>
     </r>
     <r>
@@ -3074,6 +3489,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>以色列</t>
     </r>
     <r>
@@ -3089,6 +3512,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>法国</t>
     </r>
     <r>
@@ -3104,6 +3535,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>美国</t>
     </r>
     <r>
@@ -3119,6 +3558,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>西班牙</t>
     </r>
     <r>
@@ -3134,6 +3581,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>马耳他</t>
     </r>
     <r>
@@ -3149,6 +3604,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>意大利</t>
     </r>
     <r>
@@ -3164,6 +3627,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>卢森堡</t>
     </r>
     <r>
@@ -3179,6 +3650,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>波兰</t>
     </r>
     <r>
@@ -3194,6 +3673,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>阿联酋</t>
     </r>
     <r>
@@ -3209,6 +3696,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>瑞士</t>
     </r>
     <r>
@@ -3224,6 +3719,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>巴哈马</t>
     </r>
     <r>
@@ -3239,6 +3742,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>捷克</t>
     </r>
     <r>
@@ -3254,6 +3765,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>希腊</t>
     </r>
     <r>
@@ -3269,6 +3788,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>拉脱维亚</t>
     </r>
     <r>
@@ -3284,6 +3811,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>波兰</t>
     </r>
     <r>
@@ -3299,6 +3834,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>立陶宛</t>
     </r>
     <r>
@@ -3314,6 +3857,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>捷克</t>
     </r>
     <r>
@@ -3329,6 +3880,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>爱沙尼亚</t>
     </r>
     <r>
@@ -3344,6 +3903,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>爱沙尼亚</t>
     </r>
     <r>
@@ -3359,6 +3926,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>斯洛伐克</t>
     </r>
     <r>
@@ -3374,6 +3949,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>斯洛文尼亚</t>
     </r>
     <r>
@@ -3389,6 +3972,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>匈牙利</t>
     </r>
     <r>
@@ -3404,6 +3995,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>拉脱维亚</t>
     </r>
     <r>
@@ -3419,6 +4018,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>阿根廷</t>
     </r>
     <r>
@@ -3434,6 +4041,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>立陶宛</t>
     </r>
     <r>
@@ -3449,6 +4064,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>巴西</t>
     </r>
     <r>
@@ -3464,6 +4087,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>匈牙利</t>
     </r>
     <r>
@@ -3479,6 +4110,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>南非</t>
     </r>
     <r>
@@ -3494,6 +4133,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>克罗地亚</t>
     </r>
     <r>
@@ -3509,6 +4156,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>乌克兰</t>
     </r>
     <r>
@@ -3524,6 +4179,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>俄罗斯</t>
     </r>
     <r>
@@ -3539,6 +4202,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>巴基斯坦</t>
     </r>
     <r>
@@ -3554,6 +4225,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>巴西</t>
     </r>
     <r>
@@ -3569,6 +4248,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>印度</t>
     </r>
     <r>
@@ -3584,6 +4271,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>阿根廷</t>
     </r>
     <r>
@@ -3599,6 +4294,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>智利</t>
     </r>
     <r>
@@ -3614,6 +4317,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>巴基斯坦</t>
     </r>
     <r>
@@ -3629,6 +4340,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>墨西哥</t>
     </r>
     <r>
@@ -3644,6 +4363,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>印度</t>
     </r>
     <r>
@@ -3659,6 +4386,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>俄罗斯</t>
     </r>
     <r>
@@ -3674,6 +4409,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>尼日利亚</t>
     </r>
     <r>
@@ -3689,6 +4432,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>埃及</t>
     </r>
     <r>
@@ -3704,6 +4455,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>乌克兰</t>
     </r>
     <r>
@@ -3719,6 +4478,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>尼日利亚</t>
     </r>
     <r>
@@ -3734,6 +4501,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>孟加拉国</t>
     </r>
     <r>
@@ -3749,6 +4524,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>孟加拉国</t>
     </r>
     <r>
@@ -3764,6 +4547,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>南非</t>
     </r>
     <r>
@@ -3779,6 +4570,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>阿尔及利亚</t>
     </r>
     <r>
@@ -3794,6 +4593,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>埃及</t>
     </r>
     <r>
@@ -3809,6 +4616,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>摩洛哥</t>
     </r>
     <r>
@@ -3824,6 +4639,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>肯尼亚</t>
     </r>
     <r>
@@ -3839,6 +4662,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>波多黎各</t>
     </r>
     <r>
@@ -3854,6 +4685,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>菲律宾</t>
     </r>
     <r>
@@ -3869,6 +4708,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>塞尔维亚</t>
     </r>
     <r>
@@ -3881,6 +4728,71 @@
       </rPr>
       <t xml:space="preserve"> - 约9.0%</t>
     </r>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>链接</t>
+  </si>
+  <si>
+    <t>SPEAG</t>
+  </si>
+  <si>
+    <t>https://speag.swiss/</t>
+  </si>
+  <si>
+    <t>Ciena</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/cmp/Ciena?from=mobviewjob&amp;tk=1icg8qj3mh3l8800&amp;fromjk=f2f6f8f4339159a2&amp;attributionid=mobvjcmp</t>
+  </si>
+  <si>
+    <t>Honeywell</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/cmp/Honeywell?from=mobviewjob&amp;tk=1icg958q8h3ln85i&amp;fromjk=ab674af83ed49831&amp;attributionid=mobvjcmp</t>
+  </si>
+  <si>
+    <r>
+      <t>Avari</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF595959"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/cmp/Avari-Wireless?from=mobviewjob&amp;tk=1icg9b9g7gqla87j&amp;fromjk=20c37a31d9af21f8&amp;attributionid=mobvjcmp</t>
+  </si>
+  <si>
+    <t>Rogers Communications</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/cmp/Rogers-Communications?from=mobviewjob&amp;tk=1icg9gdeogsvv805&amp;fromjk=8579d9ea32bdaa26&amp;attributionid=mobvjcmp</t>
+  </si>
+  <si>
+    <t>Swiftlink Technologies Inc.</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/cmp/Swiftlink-Technologies-Inc.-1?from=mobviewjob&amp;tk=1icg9je0hgsv5800&amp;fromjk=8af4fbb67c31ce6e&amp;attributionid=mobvjcmp</t>
+  </si>
+  <si>
+    <t>Bluewaves Mobility Innovation Inc</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/cmp/Bluewaves-Mobility-Innovation-Inc?from=mobviewjob&amp;tk=1icg9keie235f000&amp;fromjk=7486225cb2f44c44&amp;attributionid=mobvjcmp</t>
+  </si>
+  <si>
+    <t>Pairwise</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/cmp/Pairwise?from=mobviewjob&amp;tk=1icg9pj3eh3nn800&amp;fromjk=f1eca63b1decaee2&amp;attributionid=mobvjcmp</t>
   </si>
 </sst>
 </file>
@@ -3893,13 +4805,26 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF2D2D2D"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF595959"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -4051,6 +4976,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4374,156 +5314,165 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5065,9 +6014,9 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="73.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="73.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -5076,7 +6025,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5094,908 +6043,907 @@
   <sheetPr/>
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.6666666666667" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.1111111111111" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.5555555555556" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.5555555555556" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.8888888888889" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.2222222222222" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.4444444444444" style="3" customWidth="1"/>
-    <col min="8" max="8" width="34.4444444444444" style="3" customWidth="1"/>
-    <col min="9" max="9" width="40" style="3" customWidth="1"/>
-    <col min="10" max="10" width="25.4444444444444" style="3" customWidth="1"/>
-    <col min="11" max="11" width="22" style="3" customWidth="1"/>
-    <col min="12" max="12" width="28.7777777777778" style="3" customWidth="1"/>
-    <col min="13" max="13" width="25.4444444444444" style="3" customWidth="1"/>
-    <col min="14" max="14" width="28.7777777777778" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="8.88888888888889" style="3"/>
+    <col min="1" max="1" width="18.6666666666667" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.1083333333333" style="5" customWidth="1"/>
+    <col min="3" max="3" width="71.5583333333333" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.5583333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.8916666666667" style="5" customWidth="1"/>
+    <col min="6" max="6" width="24.225" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25.4416666666667" style="5" customWidth="1"/>
+    <col min="8" max="8" width="34.4416666666667" style="5" customWidth="1"/>
+    <col min="9" max="9" width="40" style="5" customWidth="1"/>
+    <col min="10" max="10" width="25.4416666666667" style="5" customWidth="1"/>
+    <col min="11" max="11" width="22" style="5" customWidth="1"/>
+    <col min="12" max="12" width="28.775" style="5" customWidth="1"/>
+    <col min="13" max="13" width="25.4416666666667" style="5" customWidth="1"/>
+    <col min="14" max="14" width="28.775" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="8.89166666666667" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="331.2" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="310.5" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" ht="409.5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" ht="409.5" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" ht="409.5" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" ht="409.5" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" ht="409.5" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" ht="409.5" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" ht="409.5" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" ht="409.5" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" ht="409.5" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" ht="409.5" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" ht="409.5" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" ht="409.5" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" ht="409.5" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" ht="409.5" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" ht="409.5" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" ht="409.5" spans="1:3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" ht="409.5" spans="1:3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" ht="409.5" spans="1:3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" ht="360" spans="1:3">
-      <c r="A23" s="1" t="s">
+    <row r="23" ht="337.5" spans="1:3">
+      <c r="A23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" ht="316.8" spans="1:3">
-      <c r="A24" s="1" t="s">
+    <row r="24" ht="283.5" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" ht="316.8" spans="1:3">
-      <c r="A25" s="1" t="s">
+    <row r="25" ht="297" spans="1:3">
+      <c r="A25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" ht="288" spans="1:3">
-      <c r="A26" s="1" t="s">
+    <row r="26" ht="270" spans="1:3">
+      <c r="A26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" ht="288" spans="1:3">
-      <c r="A27" s="1" t="s">
+    <row r="27" ht="270" spans="1:3">
+      <c r="A27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" ht="316.8" spans="1:3">
-      <c r="A28" s="1" t="s">
+    <row r="28" ht="297" spans="1:3">
+      <c r="A28" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" ht="288" spans="1:3">
-      <c r="A29" s="1" t="s">
+    <row r="29" ht="270" spans="1:3">
+      <c r="A29" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" ht="331.2" spans="1:3">
-      <c r="A30" s="1" t="s">
+    <row r="30" ht="310.5" spans="1:3">
+      <c r="A30" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" ht="288" spans="1:3">
-      <c r="A31" s="1" t="s">
+    <row r="31" ht="270" spans="1:3">
+      <c r="A31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" ht="288" spans="1:3">
-      <c r="A32" s="1" t="s">
+    <row r="32" ht="270" spans="1:3">
+      <c r="A32" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" ht="302.4" spans="1:3">
-      <c r="A33" s="1" t="s">
+    <row r="33" ht="270" spans="1:3">
+      <c r="A33" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="34" ht="331.2" spans="1:3">
-      <c r="A34" s="1" t="s">
+    <row r="34" ht="310.5" spans="1:3">
+      <c r="A34" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" ht="288" spans="1:3">
-      <c r="A35" s="1" t="s">
+    <row r="35" ht="270" spans="1:3">
+      <c r="A35" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="36" ht="288" spans="1:3">
-      <c r="A36" s="1" t="s">
+    <row r="36" ht="270" spans="1:3">
+      <c r="A36" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="37" ht="288" spans="1:3">
-      <c r="A37" s="1" t="s">
+    <row r="37" ht="270" spans="1:3">
+      <c r="A37" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" ht="288" spans="1:3">
-      <c r="A38" s="1" t="s">
+    <row r="38" ht="270" spans="1:3">
+      <c r="A38" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="39" ht="288" spans="1:3">
-      <c r="A39" s="1" t="s">
+    <row r="39" ht="270" spans="1:3">
+      <c r="A39" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="40" ht="288" spans="1:3">
-      <c r="A40" s="1" t="s">
+    <row r="40" ht="270" spans="1:3">
+      <c r="A40" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="5"/>
+      <c r="C42" s="7"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="5"/>
+      <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="5"/>
+      <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C45" s="5"/>
+      <c r="C45" s="7"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="5"/>
+      <c r="C46" s="7"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="5"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C48" s="5"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C49" s="5"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="5"/>
+      <c r="C50" s="7"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="7" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="3" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="3" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="3" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="3" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="3" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="7" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="3" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="3" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="3" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="3" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6009,7 +6957,8 @@
     <mergeCell ref="C80:C88"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://www.jobs.ch/en/"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://www.jobs.ch/en/" tooltip="https://www.jobs.ch/en/"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://www.jobchannel.ch/en/home/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6025,418 +6974,418 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="7.66666666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.6666666666667" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.89166666666667" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="4" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="1">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="4" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="4" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6455,572 +7404,572 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="1"/>
-    <col min="2" max="2" width="27.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.8888888888889" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="8.89166666666667" style="3"/>
+    <col min="2" max="2" width="27.5583333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.8916666666667" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.89166666666667" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="4" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="4" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="4" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="4" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="4" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="4" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="4" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="4" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="4" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="4" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="4" t="s">
         <v>346</v>
       </c>
     </row>
@@ -7028,4 +7977,113 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="45.125" customWidth="1"/>
+    <col min="2" max="2" width="101.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" ht="19.5" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" ht="19.5" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" ht="19.5" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" ht="19.5" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>